--- a/Mifos Automation Excels/Loan Product/4130-RBI-EI-DB-DL-NOREC-MOREREPAY-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4130-RBI-EI-DB-DL-NOREC-MOREREPAY-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>productname</t>
   </si>
@@ -98,7 +98,10 @@
     <t>Overdue/Due Fee/Int,Principal</t>
   </si>
   <si>
-    <t>4130-RBI-EI-DB-DL-NOREC-MOREREPAY</t>
+    <t>4130-RBI-EI-DB-DL-NOREC-MOREREPAY-1st</t>
+  </si>
+  <si>
+    <t>413q</t>
   </si>
 </sst>
 </file>
@@ -502,8 +505,8 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>4130</v>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
